--- a/exports/policy_y1.xlsx
+++ b/exports/policy_y1.xlsx
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>3.468834638595581</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>3.333307981491089</v>
+        <v>5.203251838684082</v>
       </c>
     </row>
     <row r="26">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>4.44441032409668</v>
+        <v>6.937669277191162</v>
       </c>
     </row>
     <row r="32">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>2.923954248428345</v>
+        <v>3.651404857635498</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>5.555513381958008</v>
+        <v>8.672086715698242</v>
       </c>
     </row>
     <row r="38">
@@ -1103,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>4.381685733795166</v>
       </c>
     </row>
     <row r="40">
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>4.381685733795166</v>
       </c>
     </row>
     <row r="41">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>2.80699610710144</v>
+        <v>4.381685733795166</v>
       </c>
     </row>
     <row r="42">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>4.912243366241455</v>
+        <v>6.024817943572998</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>6.666615962982178</v>
+        <v>10.40650367736816</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>5.111967086791992</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>3.274828910827637</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="46">
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.865475177764893</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="47">
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>4.093535900115967</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>6.549657821655273</v>
+        <v>8.30694580078125</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>7.777718544006348</v>
+        <v>12.1409215927124</v>
       </c>
     </row>
     <row r="50">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>5.84224796295166</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>6.081824779510498</v>
+        <v>10.95421504974365</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>6.081824779510498</v>
+        <v>10.22393417358398</v>
       </c>
     </row>
     <row r="53">
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>7.017490386962891</v>
+        <v>10.95421504974365</v>
       </c>
     </row>
     <row r="54">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>8.420988082885742</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>8.888820648193359</v>
+        <v>13.87533855438232</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>4.210494041442871</v>
+        <v>8.21566104888916</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>7.368364810943604</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>7.368364810943604</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>8.420988082885742</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>9.999923706054688</v>
+        <v>14.78818988800049</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>9.999923706054688</v>
+        <v>15.60975646972656</v>
       </c>
     </row>
     <row r="62">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>3.468834638595581</v>
       </c>
     </row>
     <row r="74">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>3.333307981491089</v>
+        <v>5.203251838684082</v>
       </c>
     </row>
     <row r="80">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>4.44441032409668</v>
+        <v>6.937669277191162</v>
       </c>
     </row>
     <row r="86">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>5.555513381958008</v>
+        <v>8.672086715698242</v>
       </c>
     </row>
     <row r="92">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>4.210494041442871</v>
+        <v>4.929396629333496</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>6.666615962982178</v>
+        <v>10.40650367736816</v>
       </c>
     </row>
     <row r="98">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>2.865475177764893</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>4.093535900115967</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>6.140304088592529</v>
+        <v>7.66795015335083</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>7.777718544006348</v>
+        <v>12.1409215927124</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>4.210494041442871</v>
+        <v>8.033090591430664</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>4.210494041442871</v>
+        <v>8.033090591430664</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>5.146159648895264</v>
+        <v>8.033090591430664</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>7.485322952270508</v>
+        <v>10.22393417358398</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>8.888820648193359</v>
+        <v>13.87533855438232</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>3.157870531082153</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>7.368364810943604</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>7.368364810943604</v>
+        <v>11.50192546844482</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>8.420988082885742</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>9.473611831665039</v>
+        <v>14.78818988800049</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>9.999923706054688</v>
+        <v>15.60975646972656</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>4.678327083587646</v>
+        <v>9.128512382507324</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>8.187071800231934</v>
+        <v>14.60561943054199</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>8.187071800231934</v>
+        <v>14.60561943054199</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>9.356654167175293</v>
+        <v>14.60561943054199</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>11.11102676391602</v>
+        <v>16.43132209777832</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>11.11102676391602</v>
+        <v>17.34417343139648</v>
       </c>
     </row>
     <row r="122">
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>4.045985698699951</v>
       </c>
     </row>
     <row r="128">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>5.203251838684082</v>
       </c>
     </row>
     <row r="134">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>4.44441032409668</v>
+        <v>6.937669277191162</v>
       </c>
     </row>
     <row r="140">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>5.555513381958008</v>
+        <v>8.672086715698242</v>
       </c>
     </row>
     <row r="146">
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>3.157870531082153</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="151">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>6.666615962982178</v>
+        <v>10.40650367736816</v>
       </c>
     </row>
     <row r="152">
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>2.555983543395996</v>
       </c>
     </row>
     <row r="154">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>2.555983543395996</v>
       </c>
     </row>
     <row r="155">
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>2.555983543395996</v>
       </c>
     </row>
     <row r="156">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>4.912243366241455</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="157">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>7.777718544006348</v>
+        <v>12.1409215927124</v>
       </c>
     </row>
     <row r="158">
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>4.210494041442871</v>
+        <v>8.033090591430664</v>
       </c>
     </row>
     <row r="160">
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>3.742661476135254</v>
+        <v>8.033090591430664</v>
       </c>
     </row>
     <row r="161">
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>5.146159648895264</v>
+        <v>8.033090591430664</v>
       </c>
     </row>
     <row r="162">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>7.017490386962891</v>
+        <v>9.493653297424316</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>8.888820648193359</v>
+        <v>13.87533855438232</v>
       </c>
     </row>
     <row r="164">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>4.929396629333496</v>
       </c>
     </row>
     <row r="165">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>5.263117790222168</v>
+        <v>9.858793258666992</v>
       </c>
     </row>
     <row r="166">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>5.263117790222168</v>
+        <v>9.858793258666992</v>
       </c>
     </row>
     <row r="167">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>6.315741062164307</v>
+        <v>9.858793258666992</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>8.420988082885742</v>
+        <v>11.50192546844482</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>9.999923706054688</v>
+        <v>15.60975646972656</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>4.093535900115967</v>
+        <v>7.302809715270996</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>8.187071800231934</v>
+        <v>13.69276809692383</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>8.187071800231934</v>
+        <v>13.69276809692383</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>9.356654167175293</v>
+        <v>14.60561943054199</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>10.52623558044434</v>
+        <v>16.43132209777832</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>11.11102676391602</v>
+        <v>17.34417343139648</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>5.789429664611816</v>
+        <v>10.04136371612549</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>9.649048805236816</v>
+        <v>16.06618118286133</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>9.005779266357422</v>
+        <v>16.06618118286133</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>10.29231929779053</v>
+        <v>17.0703182220459</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>12.22212886810303</v>
+        <v>18.07445526123047</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>12.22212886810303</v>
+        <v>19.07859039306641</v>
       </c>
     </row>
     <row r="182">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>5.635207176208496</v>
       </c>
     </row>
     <row r="188">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>4.44441032409668</v>
+        <v>6.937669277191162</v>
       </c>
     </row>
     <row r="194">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>5.555513381958008</v>
+        <v>8.672086715698242</v>
       </c>
     </row>
     <row r="200">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>6.666615962982178</v>
+        <v>10.40650367736816</v>
       </c>
     </row>
     <row r="206">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>2.555983543395996</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>2.555983543395996</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>2.555983543395996</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>4.093535900115967</v>
+        <v>4.472970962524414</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>7.368364810943604</v>
+        <v>12.1409215927124</v>
       </c>
     </row>
     <row r="212">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>4.381685733795166</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>4.381685733795166</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>2.80699610710144</v>
+        <v>4.381685733795166</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>6.081824779510498</v>
+        <v>8.033090591430664</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>8.888820648193359</v>
+        <v>13.87533855438232</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>4.929396629333496</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>5.263117790222168</v>
+        <v>9.858793258666992</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>5.263117790222168</v>
+        <v>8.21566104888916</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>6.315741062164307</v>
+        <v>9.858793258666992</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>7.894676685333252</v>
+        <v>11.50192546844482</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>9.999923706054688</v>
+        <v>15.60975646972656</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>3.508745193481445</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>6.432699680328369</v>
+        <v>10.95421504974365</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>6.432699680328369</v>
+        <v>10.95421504974365</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>7.017490386962891</v>
+        <v>10.95421504974365</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>9.356654167175293</v>
+        <v>13.69276809692383</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>11.11102676391602</v>
+        <v>17.34417343139648</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>5.146159648895264</v>
+        <v>9.037227630615234</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>9.649048805236816</v>
+        <v>15.06204509735107</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>7.719239234924316</v>
+        <v>15.06204509735107</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>9.649048805236816</v>
+        <v>16.06618118286133</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>11.57885932922363</v>
+        <v>18.07445526123047</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>12.22212886810303</v>
+        <v>19.07859039306641</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>6.315741062164307</v>
+        <v>10.95421504974365</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>10.52623558044434</v>
+        <v>17.52674293518066</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>10.52623558044434</v>
+        <v>17.52674293518066</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>11.92973327636719</v>
+        <v>18.62216567993164</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>13.33323192596436</v>
+        <v>19.71758651733398</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>13.33323192596436</v>
+        <v>20.81300735473633</v>
       </c>
     </row>
     <row r="242">
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>4.923646450042725</v>
+        <v>7.406999111175537</v>
       </c>
     </row>
     <row r="248">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>5.555513381958008</v>
+        <v>8.672086715698242</v>
       </c>
     </row>
     <row r="254">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>6.315741062164307</v>
+        <v>10.40650367736816</v>
       </c>
     </row>
     <row r="260">
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>3.274828910827637</v>
+        <v>3.833975076675415</v>
       </c>
     </row>
     <row r="265">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>7.368364810943604</v>
+        <v>12.1409215927124</v>
       </c>
     </row>
     <row r="266">
@@ -4979,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>0</v>
+        <v>4.381685733795166</v>
       </c>
     </row>
     <row r="268">
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>0</v>
+        <v>4.381685733795166</v>
       </c>
     </row>
     <row r="269">
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>2.80699610710144</v>
+        <v>4.381685733795166</v>
       </c>
     </row>
     <row r="270">
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>5.146159648895264</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="271">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>8.420988082885742</v>
+        <v>13.87533855438232</v>
       </c>
     </row>
     <row r="272">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>3.157870531082153</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="274">
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>3.157870531082153</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="275">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>4.210494041442871</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>6.842052936553955</v>
+        <v>9.037227630615234</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>9.999923706054688</v>
+        <v>15.60975646972656</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>5.477107524871826</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>6.432699680328369</v>
+        <v>10.95421504974365</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>5.847908496856689</v>
+        <v>10.04136371612549</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>7.017490386962891</v>
+        <v>10.95421504974365</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>8.771862983703613</v>
+        <v>12.77991771697998</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>11.11102676391602</v>
+        <v>17.34417343139648</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>4.502889633178711</v>
+        <v>8.033090591430664</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>7.075969219207764</v>
+        <v>13.05377292633057</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>7.075969219207764</v>
+        <v>12.049635887146</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>8.362509727478027</v>
+        <v>13.05377292633057</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>10.29231929779053</v>
+        <v>15.06204509735107</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>12.22212886810303</v>
+        <v>19.07859039306641</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>6.315741062164307</v>
+        <v>9.858793258666992</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>10.52623558044434</v>
+        <v>17.52674293518066</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>8.420988082885742</v>
+        <v>16.43132209777832</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>11.22798442840576</v>
+        <v>17.52674293518066</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>12.63148212432861</v>
+        <v>19.71758651733398</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>13.33323192596436</v>
+        <v>20.81300735473633</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>7.602281093597412</v>
+        <v>11.86706638336182</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>11.40342140197754</v>
+        <v>18.98730659484863</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>9.882965087890625</v>
+        <v>18.98730659484863</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>12.92387771606445</v>
+        <v>20.17401313781738</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>14.44433403015137</v>
+        <v>21.36071968078613</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>14.44433403015137</v>
+        <v>22.54742622375488</v>
       </c>
     </row>
     <row r="302">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>5.555513381958008</v>
+        <v>9.361360549926758</v>
       </c>
     </row>
     <row r="308">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>6.315741062164307</v>
+        <v>10.40650367736816</v>
       </c>
     </row>
     <row r="314">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>6.549657821655273</v>
+        <v>12.1409215927124</v>
       </c>
     </row>
     <row r="320">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>0</v>
+        <v>1.460561990737915</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>4.210494041442871</v>
+        <v>5.111967086791992</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>7.953155517578125</v>
+        <v>13.87533855438232</v>
       </c>
     </row>
     <row r="326">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>3.157870531082153</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>0</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>4.210494041442871</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>6.315741062164307</v>
+        <v>8.21566104888916</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>9.473611831665039</v>
+        <v>15.60975646972656</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>0</v>
+        <v>4.564256191253662</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>4.093535900115967</v>
+        <v>8.21566104888916</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>4.093535900115967</v>
+        <v>8.21566104888916</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>5.263117790222168</v>
+        <v>8.21566104888916</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>7.602281093597412</v>
+        <v>10.04136371612549</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>10.52623558044434</v>
+        <v>17.34417343139648</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>3.216349840164185</v>
+        <v>6.024817943572998</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>7.075969219207764</v>
+        <v>13.05377292633057</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>7.075969219207764</v>
+        <v>12.049635887146</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>8.362509727478027</v>
+        <v>13.05377292633057</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>9.649048805236816</v>
+        <v>15.06204509735107</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>12.22212886810303</v>
+        <v>19.07859039306641</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>4.912243366241455</v>
+        <v>9.858793258666992</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>8.420988082885742</v>
+        <v>14.24047946929932</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>8.420988082885742</v>
+        <v>14.24047946929932</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>9.122737884521484</v>
+        <v>14.24047946929932</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>11.22798442840576</v>
+        <v>16.43132209777832</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>13.33323192596436</v>
+        <v>20.81300735473633</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>7.602281093597412</v>
+        <v>11.86706638336182</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>11.40342140197754</v>
+        <v>18.98730659484863</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>9.122737884521484</v>
+        <v>17.80059814453125</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>12.163649559021</v>
+        <v>20.17401313781738</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>13.68410587310791</v>
+        <v>21.36071968078613</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>14.44433403015137</v>
+        <v>22.54742622375488</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>9.005779266357422</v>
+        <v>14.05790901184082</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>12.28060817718506</v>
+        <v>21.72585868835449</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>10.64319324493408</v>
+        <v>20.44786834716797</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>13.91802215576172</v>
+        <v>21.72585868835449</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>15.5554370880127</v>
+        <v>23.00385093688965</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>15.5554370880127</v>
+        <v>24.2818431854248</v>
       </c>
     </row>
     <row r="362">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>5.964866638183594</v>
+        <v>9.858793258666992</v>
       </c>
     </row>
     <row r="368">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>6.549657821655273</v>
+        <v>12.1409215927124</v>
       </c>
     </row>
     <row r="374">
@@ -6849,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>0</v>
+        <v>1.460561990737915</v>
       </c>
     </row>
     <row r="378">
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="E378" t="n">
-        <v>3.274828910827637</v>
+        <v>3.651404857635498</v>
       </c>
     </row>
     <row r="379">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>7.485322952270508</v>
+        <v>13.87533855438232</v>
       </c>
     </row>
     <row r="380">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>0</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="382">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>0</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>2.105247020721436</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>5.263117790222168</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>8.420988082885742</v>
+        <v>15.60975646972656</v>
       </c>
     </row>
     <row r="386">
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>4.093535900115967</v>
+        <v>8.21566104888916</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>3.508745193481445</v>
+        <v>8.21566104888916</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>5.263117790222168</v>
+        <v>8.21566104888916</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>7.017490386962891</v>
+        <v>10.04136371612549</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>9.941444396972656</v>
+        <v>17.34417343139648</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>0</v>
+        <v>5.020681858062744</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>5.146159648895264</v>
+        <v>10.04136371612549</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>5.146159648895264</v>
+        <v>10.04136371612549</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>6.432699680328369</v>
+        <v>10.04136371612549</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>8.362509727478027</v>
+        <v>12.049635887146</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>11.57885932922363</v>
+        <v>19.07859039306641</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>4.210494041442871</v>
+        <v>7.66795015335083</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>8.420988082885742</v>
+        <v>14.24047946929932</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>6.315741062164307</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>9.122737884521484</v>
+        <v>14.24047946929932</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>11.22798442840576</v>
+        <v>16.43132209777832</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>13.33323192596436</v>
+        <v>20.81300735473633</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>6.081824779510498</v>
+        <v>10.68035984039307</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>9.122737884521484</v>
+        <v>16.6138916015625</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>9.122737884521484</v>
+        <v>15.42718601226807</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>10.64319324493408</v>
+        <v>16.6138916015625</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>12.92387771606445</v>
+        <v>18.98730659484863</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>14.44433403015137</v>
+        <v>22.54742622375488</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>8.187071800231934</v>
+        <v>12.77991771697998</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>12.28060817718506</v>
+        <v>20.44786834716797</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>10.64319324493408</v>
+        <v>20.44786834716797</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>13.09931564331055</v>
+        <v>21.72585868835449</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>14.73672962188721</v>
+        <v>23.00385093688965</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>15.5554370880127</v>
+        <v>24.2818431854248</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>9.649048805236816</v>
+        <v>15.06204509735107</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>14.03498077392578</v>
+        <v>23.27770614624023</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>12.28060817718506</v>
+        <v>21.9084300994873</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>14.91216659545898</v>
+        <v>23.27770614624023</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>16.66654014587402</v>
+        <v>24.6469841003418</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>16.66654014587402</v>
+        <v>26.01626014709473</v>
       </c>
     </row>
     <row r="422">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>6.140304088592529</v>
+        <v>10.86292934417725</v>
       </c>
     </row>
     <row r="428">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>7.017490386962891</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="434">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>0</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>0</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>2.105247020721436</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>4.210494041442871</v>
+        <v>4.929396629333496</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>7.894676685333252</v>
+        <v>15.60975646972656</v>
       </c>
     </row>
     <row r="440">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>0</v>
+        <v>4.564256191253662</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>0</v>
+        <v>4.564256191253662</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>2.923954248428345</v>
+        <v>4.564256191253662</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>6.432699680328369</v>
+        <v>8.21566104888916</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>9.356654167175293</v>
+        <v>17.34417343139648</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>0</v>
+        <v>5.020681858062744</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>5.146159648895264</v>
+        <v>10.04136371612549</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>4.502889633178711</v>
+        <v>10.04136371612549</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>6.432699680328369</v>
+        <v>10.04136371612549</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>8.362509727478027</v>
+        <v>11.04549980163574</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>10.93558883666992</v>
+        <v>19.07859039306641</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>0</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>6.315741062164307</v>
+        <v>10.95421504974365</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>6.315741062164307</v>
+        <v>10.95421504974365</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>7.017490386962891</v>
+        <v>10.95421504974365</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>9.82448673248291</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>12.63148212432861</v>
+        <v>20.81300735473633</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>5.321596622467041</v>
+        <v>8.30694580078125</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>9.122737884521484</v>
+        <v>15.42718601226807</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>7.602281093597412</v>
+        <v>15.42718601226807</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>10.64319324493408</v>
+        <v>16.6138916015625</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>12.163649559021</v>
+        <v>17.80059814453125</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>14.44433403015137</v>
+        <v>22.54742622375488</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>6.549657821655273</v>
+        <v>11.50192546844482</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>10.64319324493408</v>
+        <v>17.89188385009766</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>9.005779266357422</v>
+        <v>16.6138916015625</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>11.46190071105957</v>
+        <v>17.89188385009766</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>13.91802215576172</v>
+        <v>20.44786834716797</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>15.5554370880127</v>
+        <v>24.2818431854248</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>8.771862983703613</v>
+        <v>15.06204509735107</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>14.03498077392578</v>
+        <v>21.9084300994873</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>11.40342140197754</v>
+        <v>21.9084300994873</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>14.03498077392578</v>
+        <v>23.27770614624023</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>15.7893533706665</v>
+        <v>24.6469841003418</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>16.66654014587402</v>
+        <v>26.01626014709473</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>10.29231929779053</v>
+        <v>17.52674293518066</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>14.97064590454102</v>
+        <v>24.82955360412598</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>13.09931564331055</v>
+        <v>23.36899185180664</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>15.90631103515625</v>
+        <v>24.82955360412598</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>16.84197616577148</v>
+        <v>26.29011535644531</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>17.77764129638672</v>
+        <v>27.75067710876465</v>
       </c>
     </row>
     <row r="482">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>6.549657821655273</v>
+        <v>11.68449592590332</v>
       </c>
     </row>
     <row r="488">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>3.157870531082153</v>
+        <v>4.10783052444458</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>7.368364810943604</v>
+        <v>14.78818988800049</v>
       </c>
     </row>
     <row r="494">
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>0</v>
+        <v>4.564256191253662</v>
       </c>
     </row>
     <row r="496">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>0</v>
+        <v>4.564256191253662</v>
       </c>
     </row>
     <row r="497">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>2.923954248428345</v>
+        <v>4.564256191253662</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>5.263117790222168</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>8.771862983703613</v>
+        <v>16.43132209777832</v>
       </c>
     </row>
     <row r="500">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>3.216349840164185</v>
+        <v>6.024817943572998</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>0</v>
+        <v>6.024817943572998</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>3.859619617462158</v>
+        <v>6.024817943572998</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>7.075969219207764</v>
+        <v>9.037227630615234</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>9.649048805236816</v>
+        <v>19.07859039306641</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>0</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>6.315741062164307</v>
+        <v>10.95421504974365</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>4.912243366241455</v>
+        <v>10.95421504974365</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>7.017490386962891</v>
+        <v>10.95421504974365</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>9.122737884521484</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>11.92973327636719</v>
+        <v>20.81300735473633</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>0</v>
+        <v>8.30694580078125</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>7.602281093597412</v>
+        <v>13.05377292633057</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>6.842052936553955</v>
+        <v>13.05377292633057</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>8.362509727478027</v>
+        <v>13.05377292633057</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>10.64319324493408</v>
+        <v>15.42718601226807</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>12.92387771606445</v>
+        <v>22.54742622375488</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>6.549657821655273</v>
+        <v>10.22393417358398</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>10.64319324493408</v>
+        <v>17.89188385009766</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>9.005779266357422</v>
+        <v>16.6138916015625</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>11.46190071105957</v>
+        <v>17.89188385009766</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>13.09931564331055</v>
+        <v>19.16987609863281</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>14.73672962188721</v>
+        <v>24.2818431854248</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>7.894676685333252</v>
+        <v>12.3234920501709</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>11.40342140197754</v>
+        <v>19.16987609863281</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>9.649048805236816</v>
+        <v>19.16987609863281</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>12.28060817718506</v>
+        <v>19.16987609863281</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>14.03498077392578</v>
+        <v>21.9084300994873</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>16.66654014587402</v>
+        <v>26.01626014709473</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>10.29231929779053</v>
+        <v>16.06618118286133</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>14.97064590454102</v>
+        <v>23.36899185180664</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>12.163649559021</v>
+        <v>23.36899185180664</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>14.97064590454102</v>
+        <v>24.82955360412598</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>16.84197616577148</v>
+        <v>26.29011535644531</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>17.77764129638672</v>
+        <v>27.75067710876465</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>11.92973327636719</v>
+        <v>18.62216567993164</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>15.90631103515625</v>
+        <v>26.38140106201172</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>13.91802215576172</v>
+        <v>24.82955360412598</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>16.90045547485352</v>
+        <v>26.38140106201172</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>17.89459991455078</v>
+        <v>27.93324851989746</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>18.88874435424805</v>
+        <v>29.48509407043457</v>
       </c>
     </row>
     <row r="542">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>2.105247020721436</v>
+        <v>1.643132209777832</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>6.842052936553955</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="548">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>4.093535900115967</v>
+        <v>5.477107524871826</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>8.187071800231934</v>
+        <v>15.51847076416016</v>
       </c>
     </row>
     <row r="554">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>0</v>
+        <v>6.024817943572998</v>
       </c>
     </row>
     <row r="556">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>3.859619617462158</v>
+        <v>6.024817943572998</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>6.432699680328369</v>
+        <v>8.033090591430664</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>9.649048805236816</v>
+        <v>18.07445526123047</v>
       </c>
     </row>
     <row r="560">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>4.210494041442871</v>
+        <v>7.66795015335083</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>0</v>
+        <v>7.66795015335083</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>4.912243366241455</v>
+        <v>7.66795015335083</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>7.719239234924316</v>
+        <v>10.95421504974365</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>10.52623558044434</v>
+        <v>20.81300735473633</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>0</v>
+        <v>5.933533191680908</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>7.602281093597412</v>
+        <v>13.05377292633057</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>6.081824779510498</v>
+        <v>11.86706638336182</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>8.362509727478027</v>
+        <v>13.05377292633057</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>9.882965087890625</v>
+        <v>14.24047946929932</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>12.92387771606445</v>
+        <v>22.54742622375488</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>0</v>
+        <v>10.22393417358398</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>8.187071800231934</v>
+        <v>14.05790901184082</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>7.368364810943604</v>
+        <v>14.05790901184082</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>9.005779266357422</v>
+        <v>14.05790901184082</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>11.46190071105957</v>
+        <v>16.6138916015625</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>13.91802215576172</v>
+        <v>24.2818431854248</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>7.894676685333252</v>
+        <v>12.3234920501709</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>11.40342140197754</v>
+        <v>19.16987609863281</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>9.649048805236816</v>
+        <v>17.80059814453125</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>12.28060817718506</v>
+        <v>19.16987609863281</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>14.03498077392578</v>
+        <v>21.9084300994873</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>15.7893533706665</v>
+        <v>26.01626014709473</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>8.420988082885742</v>
+        <v>14.60561943054199</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>13.09931564331055</v>
+        <v>21.9084300994873</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>11.22798442840576</v>
+        <v>20.44786834716797</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>14.03498077392578</v>
+        <v>21.9084300994873</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>15.90631103515625</v>
+        <v>23.36899185180664</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>17.77764129638672</v>
+        <v>27.75067710876465</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>10.93558883666992</v>
+        <v>17.0703182220459</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>15.90631103515625</v>
+        <v>24.82955360412598</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>12.92387771606445</v>
+        <v>24.82955360412598</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>16.90045547485352</v>
+        <v>26.38140106201172</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>17.89459991455078</v>
+        <v>27.93324851989746</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>18.88874435424805</v>
+        <v>29.48509407043457</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>12.63148212432861</v>
+        <v>19.71758651733398</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>16.84197616577148</v>
+        <v>27.93324851989746</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>14.73672962188721</v>
+        <v>26.29011535644531</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>17.89459991455078</v>
+        <v>27.93324851989746</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>18.94722366333008</v>
+        <v>29.57637977600098</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>19.99984741210938</v>
+        <v>31.21951293945312</v>
       </c>
     </row>
   </sheetData>

--- a/exports/policy_y1.xlsx
+++ b/exports/policy_y1.xlsx
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>3.468834638595581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>5.203251838684082</v>
+        <v>3.359567165374756</v>
       </c>
     </row>
     <row r="26">
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>4.479423046112061</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>6.937669277191162</v>
+        <v>4.479423046112061</v>
       </c>
     </row>
     <row r="32">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>3.651404857635498</v>
+        <v>5.599278450012207</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>8.672086715698242</v>
+        <v>5.599278450012207</v>
       </c>
     </row>
     <row r="38">
@@ -1103,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>4.381685733795166</v>
+        <v>3.182747840881348</v>
       </c>
     </row>
     <row r="40">
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>4.381685733795166</v>
+        <v>2.829109191894531</v>
       </c>
     </row>
     <row r="41">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>4.381685733795166</v>
+        <v>5.304579734802246</v>
       </c>
     </row>
     <row r="42">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>6.024817943572998</v>
+        <v>6.719134330749512</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>10.40650367736816</v>
+        <v>6.719134330749512</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>5.111967086791992</v>
+        <v>4.125784397125244</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>6.38995885848999</v>
+        <v>4.95094108581543</v>
       </c>
     </row>
     <row r="46">
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>6.38995885848999</v>
+        <v>4.95094108581543</v>
       </c>
     </row>
     <row r="47">
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>6.38995885848999</v>
+        <v>7.013833045959473</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>8.30694580078125</v>
+        <v>7.838990211486816</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>12.1409215927124</v>
+        <v>7.838990211486816</v>
       </c>
     </row>
     <row r="50">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>5.84224796295166</v>
+        <v>6.601254940032959</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>10.95421504974365</v>
+        <v>7.544291019439697</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>10.22393417358398</v>
+        <v>7.072772979736328</v>
       </c>
     </row>
     <row r="53">
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>10.95421504974365</v>
+        <v>8.958846092224121</v>
       </c>
     </row>
     <row r="54">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>13.14505767822266</v>
+        <v>8.958846092224121</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>13.87533855438232</v>
+        <v>8.958846092224121</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>8.21566104888916</v>
+        <v>8.487327575683594</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>13.14505767822266</v>
+        <v>9.548243522644043</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>13.14505767822266</v>
+        <v>8.487327575683594</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>13.14505767822266</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>14.78818988800049</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>15.60975646972656</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="62">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>3.468834638595581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>5.203251838684082</v>
+        <v>3.359567165374756</v>
       </c>
     </row>
     <row r="80">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>6.937669277191162</v>
+        <v>4.479423046112061</v>
       </c>
     </row>
     <row r="86">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>5.304579734802246</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>8.672086715698242</v>
+        <v>5.599278450012207</v>
       </c>
     </row>
     <row r="92">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>3.89002513885498</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>4.929396629333496</v>
+        <v>6.719134330749512</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>10.40650367736816</v>
+        <v>6.719134330749512</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>3.300627470016479</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>6.38995885848999</v>
+        <v>4.125784397125244</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>6.38995885848999</v>
+        <v>4.125784397125244</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>6.38995885848999</v>
+        <v>6.188676357269287</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>7.66795015335083</v>
+        <v>7.838990211486816</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>12.1409215927124</v>
+        <v>7.838990211486816</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>6.572528839111328</v>
+        <v>5.186700344085693</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>8.033090591430664</v>
+        <v>6.129736423492432</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>8.033090591430664</v>
+        <v>6.129736423492432</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>8.033090591430664</v>
+        <v>8.487327575683594</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>10.22393417358398</v>
+        <v>8.958846092224121</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>13.87533855438232</v>
+        <v>8.958846092224121</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>6.572528839111328</v>
+        <v>7.426411628723145</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>13.14505767822266</v>
+        <v>8.487327575683594</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>11.50192546844482</v>
+        <v>8.487327575683594</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>13.14505767822266</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>14.78818988800049</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>15.60975646972656</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>9.128512382507324</v>
+        <v>9.430363655090332</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>14.60561943054199</v>
+        <v>10.60915946960449</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>14.60561943054199</v>
+        <v>10.01976203918457</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>14.60561943054199</v>
+        <v>11.19855690002441</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>16.43132209777832</v>
+        <v>11.19855690002441</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>17.34417343139648</v>
+        <v>11.19855690002441</v>
       </c>
     </row>
     <row r="122">
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>4.045985698699951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>5.203251838684082</v>
+        <v>3.359567165374756</v>
       </c>
     </row>
     <row r="134">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>6.937669277191162</v>
+        <v>4.479423046112061</v>
       </c>
     </row>
     <row r="140">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>8.672086715698242</v>
+        <v>5.599278450012207</v>
       </c>
     </row>
     <row r="146">
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>3.286264419555664</v>
+        <v>6.365495681762695</v>
       </c>
     </row>
     <row r="151">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>10.40650367736816</v>
+        <v>6.719134330749512</v>
       </c>
     </row>
     <row r="152">
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>2.555983543395996</v>
+        <v>2.888048887252808</v>
       </c>
     </row>
     <row r="154">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>2.555983543395996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>2.555983543395996</v>
+        <v>4.95094108581543</v>
       </c>
     </row>
     <row r="156">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>6.38995885848999</v>
+        <v>7.838990211486816</v>
       </c>
     </row>
     <row r="157">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>12.1409215927124</v>
+        <v>7.838990211486816</v>
       </c>
     </row>
     <row r="158">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>4.243663787841797</v>
       </c>
     </row>
     <row r="159">
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>8.033090591430664</v>
+        <v>5.186700344085693</v>
       </c>
     </row>
     <row r="160">
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>8.033090591430664</v>
+        <v>5.186700344085693</v>
       </c>
     </row>
     <row r="161">
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>8.033090591430664</v>
+        <v>7.544291019439697</v>
       </c>
     </row>
     <row r="162">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>9.493653297424316</v>
+        <v>8.958846092224121</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>13.87533855438232</v>
+        <v>8.958846092224121</v>
       </c>
     </row>
     <row r="164">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>4.929396629333496</v>
+        <v>6.365495681762695</v>
       </c>
     </row>
     <row r="165">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>9.858793258666992</v>
+        <v>7.426411628723145</v>
       </c>
     </row>
     <row r="166">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>9.858793258666992</v>
+        <v>6.89595365524292</v>
       </c>
     </row>
     <row r="167">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>9.858793258666992</v>
+        <v>9.548243522644043</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11.50192546844482</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>15.60975646972656</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>7.302809715270996</v>
+        <v>8.84096622467041</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>13.69276809692383</v>
+        <v>9.430363655090332</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>13.69276809692383</v>
+        <v>9.430363655090332</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>14.60561943054199</v>
+        <v>11.19855690002441</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>16.43132209777832</v>
+        <v>11.19855690002441</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>17.34417343139648</v>
+        <v>11.19855690002441</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>10.04136371612549</v>
+        <v>10.37340068817139</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>16.06618118286133</v>
+        <v>11.67007541656494</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>16.06618118286133</v>
+        <v>11.02173805236816</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>17.0703182220459</v>
+        <v>12.31841278076172</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>18.07445526123047</v>
+        <v>12.31841278076172</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>19.07859039306641</v>
+        <v>12.31841278076172</v>
       </c>
     </row>
     <row r="182">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>5.635207176208496</v>
+        <v>3.78986668586731</v>
       </c>
     </row>
     <row r="188">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>6.937669277191162</v>
+        <v>4.479423046112061</v>
       </c>
     </row>
     <row r="194">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>8.672086715698242</v>
+        <v>5.599278450012207</v>
       </c>
     </row>
     <row r="200">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>4.95094108581543</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>10.40650367736816</v>
+        <v>6.719134330749512</v>
       </c>
     </row>
     <row r="206">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>2.555983543395996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>2.555983543395996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>2.555983543395996</v>
+        <v>4.125784397125244</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>4.472970962524414</v>
+        <v>7.013833045959473</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>12.1409215927124</v>
+        <v>7.838990211486816</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>3.300627470016479</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>4.381685733795166</v>
+        <v>4.243663787841797</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>4.381685733795166</v>
+        <v>3.772145509719849</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>4.381685733795166</v>
+        <v>6.129736423492432</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>8.033090591430664</v>
+        <v>8.958846092224121</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>13.87533855438232</v>
+        <v>8.958846092224121</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>4.929396629333496</v>
+        <v>5.304579734802246</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>9.858793258666992</v>
+        <v>6.365495681762695</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>8.21566104888916</v>
+        <v>6.365495681762695</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>9.858793258666992</v>
+        <v>8.487327575683594</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>11.50192546844482</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>15.60975646972656</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>6.38995885848999</v>
+        <v>7.072772979736328</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>10.95421504974365</v>
+        <v>8.251568794250488</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>10.95421504974365</v>
+        <v>7.662170886993408</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>10.95421504974365</v>
+        <v>10.60915946960449</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>13.69276809692383</v>
+        <v>11.19855690002441</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>17.34417343139648</v>
+        <v>11.19855690002441</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>9.037227630615234</v>
+        <v>9.725062370300293</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>15.06204509735107</v>
+        <v>11.02173805236816</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>15.06204509735107</v>
+        <v>10.37340068817139</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>16.06618118286133</v>
+        <v>12.31841278076172</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>18.07445526123047</v>
+        <v>12.31841278076172</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>19.07859039306641</v>
+        <v>12.31841278076172</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>10.95421504974365</v>
+        <v>11.31643676757812</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>17.52674293518066</v>
+        <v>12.73099136352539</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>17.52674293518066</v>
+        <v>12.02371406555176</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>18.62216567993164</v>
+        <v>13.43826866149902</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>19.71758651733398</v>
+        <v>13.43826866149902</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>20.81300735473633</v>
+        <v>13.43826866149902</v>
       </c>
     </row>
     <row r="242">
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>7.406999111175537</v>
+        <v>4.944668292999268</v>
       </c>
     </row>
     <row r="248">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>8.672086715698242</v>
+        <v>5.599278450012207</v>
       </c>
     </row>
     <row r="254">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>0</v>
+        <v>3.89002513885498</v>
       </c>
     </row>
     <row r="259">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>10.40650367736816</v>
+        <v>6.719134330749512</v>
       </c>
     </row>
     <row r="260">
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>3.833975076675415</v>
+        <v>6.188676357269287</v>
       </c>
     </row>
     <row r="265">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>12.1409215927124</v>
+        <v>7.838990211486816</v>
       </c>
     </row>
     <row r="266">
@@ -4979,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>4.381685733795166</v>
+        <v>3.300627470016479</v>
       </c>
     </row>
     <row r="268">
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>4.381685733795166</v>
+        <v>3.300627470016479</v>
       </c>
     </row>
     <row r="269">
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>4.381685733795166</v>
+        <v>5.186700344085693</v>
       </c>
     </row>
     <row r="270">
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>6.572528839111328</v>
+        <v>7.544291019439697</v>
       </c>
     </row>
     <row r="271">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>13.87533855438232</v>
+        <v>8.958846092224121</v>
       </c>
     </row>
     <row r="272">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="E272" t="n">
-        <v>0</v>
+        <v>4.243663787841797</v>
       </c>
     </row>
     <row r="273">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>6.572528839111328</v>
+        <v>5.304579734802246</v>
       </c>
     </row>
     <row r="274">
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>6.572528839111328</v>
+        <v>5.304579734802246</v>
       </c>
     </row>
     <row r="275">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>6.572528839111328</v>
+        <v>7.426411628723145</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>9.037227630615234</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>15.60975646972656</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>5.477107524871826</v>
+        <v>6.483375072479248</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>10.95421504974365</v>
+        <v>7.662170886993408</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>10.04136371612549</v>
+        <v>7.072772979736328</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>10.95421504974365</v>
+        <v>9.430363655090332</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>12.77991771697998</v>
+        <v>11.19855690002441</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>17.34417343139648</v>
+        <v>11.19855690002441</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>8.033090591430664</v>
+        <v>8.428387641906738</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>13.05377292633057</v>
+        <v>9.725062370300293</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>12.049635887146</v>
+        <v>9.076725006103516</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>13.05377292633057</v>
+        <v>11.67007541656494</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>15.06204509735107</v>
+        <v>12.31841278076172</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>19.07859039306641</v>
+        <v>12.31841278076172</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>9.858793258666992</v>
+        <v>10.60915946960449</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>17.52674293518066</v>
+        <v>12.02371406555176</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>16.43132209777832</v>
+        <v>11.31643676757812</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>17.52674293518066</v>
+        <v>13.43826866149902</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>19.71758651733398</v>
+        <v>13.43826866149902</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>20.81300735473633</v>
+        <v>13.43826866149902</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>11.86706638336182</v>
+        <v>13.02569007873535</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>18.98730659484863</v>
+        <v>13.79190731048584</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>18.98730659484863</v>
+        <v>13.02569007873535</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>20.17401313781738</v>
+        <v>14.55812454223633</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>21.36071968078613</v>
+        <v>14.55812454223633</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>22.54742622375488</v>
+        <v>14.55812454223633</v>
       </c>
     </row>
     <row r="302">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>9.361360549926758</v>
+        <v>6.217349052429199</v>
       </c>
     </row>
     <row r="308">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>10.40650367736816</v>
+        <v>6.719134330749512</v>
       </c>
     </row>
     <row r="314">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>0</v>
+        <v>4.95094108581543</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>12.1409215927124</v>
+        <v>7.838990211486816</v>
       </c>
     </row>
     <row r="320">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>1.460561990737915</v>
+        <v>3.300627470016479</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>5.111967086791992</v>
+        <v>6.601254940032959</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>13.87533855438232</v>
+        <v>8.958846092224121</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>0</v>
+        <v>3.182747840881348</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>6.572528839111328</v>
+        <v>4.243663787841797</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>6.572528839111328</v>
+        <v>4.243663787841797</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>6.572528839111328</v>
+        <v>5.835037708282471</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>8.21566104888916</v>
+        <v>8.487327575683594</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>15.60975646972656</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>4.564256191253662</v>
+        <v>5.304579734802246</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>8.21566104888916</v>
+        <v>6.483375072479248</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>8.21566104888916</v>
+        <v>5.893977642059326</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>8.21566104888916</v>
+        <v>8.251568794250488</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>10.04136371612549</v>
+        <v>11.19855690002441</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>17.34417343139648</v>
+        <v>11.19855690002441</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>6.024817943572998</v>
+        <v>7.780050277709961</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>13.05377292633057</v>
+        <v>8.428387641906738</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>12.049635887146</v>
+        <v>8.428387641906738</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>13.05377292633057</v>
+        <v>11.02173805236816</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>15.06204509735107</v>
+        <v>12.31841278076172</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>19.07859039306641</v>
+        <v>12.31841278076172</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>9.858793258666992</v>
+        <v>9.194604873657227</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>14.24047946929932</v>
+        <v>10.60915946960449</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>14.24047946929932</v>
+        <v>9.901882171630859</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>14.24047946929932</v>
+        <v>12.73099136352539</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>16.43132209777832</v>
+        <v>13.43826866149902</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>20.81300735473633</v>
+        <v>13.43826866149902</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>11.86706638336182</v>
+        <v>12.25947284698486</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>18.98730659484863</v>
+        <v>13.02569007873535</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>17.80059814453125</v>
+        <v>13.02569007873535</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>20.17401313781738</v>
+        <v>14.55812454223633</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>21.36071968078613</v>
+        <v>14.55812454223633</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>22.54742622375488</v>
+        <v>14.55812454223633</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>14.05790901184082</v>
+        <v>14.02766609191895</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>21.72585868835449</v>
+        <v>14.85282325744629</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>20.44786834716797</v>
+        <v>14.02766609191895</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>21.72585868835449</v>
+        <v>15.67798042297363</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>23.00385093688965</v>
+        <v>15.67798042297363</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>24.2818431854248</v>
+        <v>15.67798042297363</v>
       </c>
     </row>
     <row r="362">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>9.858793258666992</v>
+        <v>7.160385608673096</v>
       </c>
     </row>
     <row r="368">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>12.1409215927124</v>
+        <v>7.838990211486816</v>
       </c>
     </row>
     <row r="374">
@@ -6849,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>1.460561990737915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="E378" t="n">
-        <v>3.651404857635498</v>
+        <v>6.129736423492432</v>
       </c>
     </row>
     <row r="379">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>13.87533855438232</v>
+        <v>8.958846092224121</v>
       </c>
     </row>
     <row r="380">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>3.286264419555664</v>
+        <v>3.182747840881348</v>
       </c>
     </row>
     <row r="382">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>3.286264419555664</v>
+        <v>3.182747840881348</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>3.286264419555664</v>
+        <v>4.243663787841797</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>6.572528839111328</v>
+        <v>7.426411628723145</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>15.60975646972656</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="386">
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="E386" t="n">
-        <v>0</v>
+        <v>4.715181827545166</v>
       </c>
     </row>
     <row r="387">
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>8.21566104888916</v>
+        <v>5.304579734802246</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>8.21566104888916</v>
+        <v>5.304579734802246</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>8.21566104888916</v>
+        <v>6.483375072479248</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>10.04136371612549</v>
+        <v>10.01976203918457</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>17.34417343139648</v>
+        <v>11.19855690002441</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>5.020681858062744</v>
+        <v>6.483375072479248</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>10.04136371612549</v>
+        <v>7.131712913513184</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>10.04136371612549</v>
+        <v>6.483375072479248</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>10.04136371612549</v>
+        <v>9.725062370300293</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>12.049635887146</v>
+        <v>12.31841278076172</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>19.07859039306641</v>
+        <v>12.31841278076172</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>7.66795015335083</v>
+        <v>8.487327575683594</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>14.24047946929932</v>
+        <v>9.901882171630859</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>13.14505767822266</v>
+        <v>9.194604873657227</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>14.24047946929932</v>
+        <v>12.02371406555176</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>16.43132209777832</v>
+        <v>13.43826866149902</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>20.81300735473633</v>
+        <v>13.43826866149902</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>10.68035984039307</v>
+        <v>10.7270393371582</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>16.6138916015625</v>
+        <v>11.49325561523438</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>15.42718601226807</v>
+        <v>10.7270393371582</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>16.6138916015625</v>
+        <v>13.79190731048584</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>18.98730659484863</v>
+        <v>14.55812454223633</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>22.54742622375488</v>
+        <v>14.55812454223633</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>12.77991771697998</v>
+        <v>13.20250988006592</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>20.44786834716797</v>
+        <v>14.02766609191895</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>20.44786834716797</v>
+        <v>14.02766609191895</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>21.72585868835449</v>
+        <v>15.67798042297363</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>23.00385093688965</v>
+        <v>15.67798042297363</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>24.2818431854248</v>
+        <v>15.67798042297363</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>15.06204509735107</v>
+        <v>15.02964210510254</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>23.27770614624023</v>
+        <v>15.91373920440674</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>21.9084300994873</v>
+        <v>15.02964210510254</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>23.27770614624023</v>
+        <v>16.79783630371094</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>24.6469841003418</v>
+        <v>16.79783630371094</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>26.01626014709473</v>
+        <v>16.79783630371094</v>
       </c>
     </row>
     <row r="422">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>10.86292934417725</v>
+        <v>8.103422164916992</v>
       </c>
     </row>
     <row r="428">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>0</v>
+        <v>5.186700344085693</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>13.14505767822266</v>
+        <v>8.958846092224121</v>
       </c>
     </row>
     <row r="434">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>3.286264419555664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>3.286264419555664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>3.286264419555664</v>
+        <v>3.182747840881348</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>4.929396629333496</v>
+        <v>7.426411628723145</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>15.60975646972656</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>0</v>
+        <v>2.946988821029663</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>4.564256191253662</v>
+        <v>4.125784397125244</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>4.564256191253662</v>
+        <v>4.125784397125244</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>4.564256191253662</v>
+        <v>5.304579734802246</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>8.21566104888916</v>
+        <v>8.84096622467041</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>17.34417343139648</v>
+        <v>11.19855690002441</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>5.020681858062744</v>
+        <v>5.835037708282471</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>10.04136371612549</v>
+        <v>6.483375072479248</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>10.04136371612549</v>
+        <v>6.483375072479248</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>10.04136371612549</v>
+        <v>7.780050277709961</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>11.04549980163574</v>
+        <v>11.02173805236816</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>19.07859039306641</v>
+        <v>12.31841278076172</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>6.572528839111328</v>
+        <v>7.780050277709961</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>10.95421504974365</v>
+        <v>8.487327575683594</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>10.95421504974365</v>
+        <v>7.780050277709961</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>10.95421504974365</v>
+        <v>10.60915946960449</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>13.14505767822266</v>
+        <v>12.73099136352539</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>20.81300735473633</v>
+        <v>13.43826866149902</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>8.30694580078125</v>
+        <v>9.960822105407715</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>15.42718601226807</v>
+        <v>10.7270393371582</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>15.42718601226807</v>
+        <v>10.7270393371582</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>16.6138916015625</v>
+        <v>13.02569007873535</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>17.80059814453125</v>
+        <v>14.55812454223633</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>22.54742622375488</v>
+        <v>14.55812454223633</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>11.50192546844482</v>
+        <v>11.55219554901123</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>17.89188385009766</v>
+        <v>12.37735271453857</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>16.6138916015625</v>
+        <v>12.37735271453857</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>17.89188385009766</v>
+        <v>14.85282325744629</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>20.44786834716797</v>
+        <v>15.67798042297363</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>24.2818431854248</v>
+        <v>15.67798042297363</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>15.06204509735107</v>
+        <v>14.14554595947266</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>21.9084300994873</v>
+        <v>15.02964210510254</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>21.9084300994873</v>
+        <v>15.02964210510254</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>23.27770614624023</v>
+        <v>16.79783630371094</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>24.6469841003418</v>
+        <v>16.79783630371094</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>26.01626014709473</v>
+        <v>16.79783630371094</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>17.52674293518066</v>
+        <v>16.03161811828613</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>24.82955360412598</v>
+        <v>16.97465515136719</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>23.36899185180664</v>
+        <v>16.03161811828613</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>24.82955360412598</v>
+        <v>17.91769218444824</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>26.29011535644531</v>
+        <v>17.91769218444824</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>27.75067710876465</v>
+        <v>17.91769218444824</v>
       </c>
     </row>
     <row r="482">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="E486" t="n">
-        <v>0</v>
+        <v>4.243663787841797</v>
       </c>
     </row>
     <row r="487">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>11.68449592590332</v>
+        <v>9.611862182617188</v>
       </c>
     </row>
     <row r="488">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>4.10783052444458</v>
+        <v>6.365495681762695</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>14.78818988800049</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="494">
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>4.564256191253662</v>
+        <v>3.536386489868164</v>
       </c>
     </row>
     <row r="496">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>4.564256191253662</v>
+        <v>2.946988821029663</v>
       </c>
     </row>
     <row r="497">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>4.564256191253662</v>
+        <v>4.715181827545166</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>6.38995885848999</v>
+        <v>7.662170886993408</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>16.43132209777832</v>
+        <v>11.19855690002441</v>
       </c>
     </row>
     <row r="500">
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E500" t="n">
-        <v>0</v>
+        <v>4.538362503051758</v>
       </c>
     </row>
     <row r="501">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>6.024817943572998</v>
+        <v>5.186700344085693</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>6.024817943572998</v>
+        <v>4.538362503051758</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>6.024817943572998</v>
+        <v>6.483375072479248</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>9.037227630615234</v>
+        <v>9.725062370300293</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>19.07859039306641</v>
+        <v>12.31841278076172</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>6.572528839111328</v>
+        <v>6.365495681762695</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>10.95421504974365</v>
+        <v>7.780050277709961</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>10.95421504974365</v>
+        <v>7.072772979736328</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>10.95421504974365</v>
+        <v>9.194604873657227</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>13.14505767822266</v>
+        <v>12.02371406555176</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>20.81300735473633</v>
+        <v>13.43826866149902</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>8.30694580078125</v>
+        <v>8.428387641906738</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>13.05377292633057</v>
+        <v>9.194604873657227</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>13.05377292633057</v>
+        <v>9.194604873657227</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>13.05377292633057</v>
+        <v>11.49325561523438</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>15.42718601226807</v>
+        <v>13.79190731048584</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>22.54742622375488</v>
+        <v>14.55812454223633</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>10.22393417358398</v>
+        <v>10.7270393371582</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>17.89188385009766</v>
+        <v>11.55219554901123</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>16.6138916015625</v>
+        <v>11.55219554901123</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>17.89188385009766</v>
+        <v>14.02766609191895</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>19.16987609863281</v>
+        <v>15.67798042297363</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>24.2818431854248</v>
+        <v>15.67798042297363</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>12.3234920501709</v>
+        <v>12.37735271453857</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>19.16987609863281</v>
+        <v>14.14554595947266</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>19.16987609863281</v>
+        <v>13.26144886016846</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>19.16987609863281</v>
+        <v>15.91373920440674</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>21.9084300994873</v>
+        <v>16.79783630371094</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>26.01626014709473</v>
+        <v>16.79783630371094</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>16.06618118286133</v>
+        <v>15.08858203887939</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>23.36899185180664</v>
+        <v>16.03161811828613</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>23.36899185180664</v>
+        <v>16.03161811828613</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>24.82955360412598</v>
+        <v>17.91769218444824</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>26.29011535644531</v>
+        <v>17.91769218444824</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>27.75067710876465</v>
+        <v>17.91769218444824</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>18.62216567993164</v>
+        <v>17.03359413146973</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>26.38140106201172</v>
+        <v>18.03557014465332</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>24.82955360412598</v>
+        <v>18.03557014465332</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>26.38140106201172</v>
+        <v>19.03754615783691</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>27.93324851989746</v>
+        <v>19.03754615783691</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>29.48509407043457</v>
+        <v>19.03754615783691</v>
       </c>
     </row>
     <row r="542">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>1.643132209777832</v>
+        <v>5.304579734802246</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>13.14505767822266</v>
+        <v>10.61383819580078</v>
       </c>
     </row>
     <row r="548">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>0</v>
+        <v>2.946988821029663</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>5.477107524871826</v>
+        <v>6.483375072479248</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>15.51847076416016</v>
+        <v>11.19855690002441</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>0</v>
+        <v>3.241687536239624</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>6.024817943572998</v>
+        <v>4.538362503051758</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>0</v>
+        <v>4.538362503051758</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>6.024817943572998</v>
+        <v>5.835037708282471</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>8.033090591430664</v>
+        <v>9.076725006103516</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>18.07445526123047</v>
+        <v>12.31841278076172</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>0</v>
+        <v>5.658218383789062</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>7.66795015335083</v>
+        <v>6.365495681762695</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>7.66795015335083</v>
+        <v>5.658218383789062</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>7.66795015335083</v>
+        <v>7.780050277709961</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>10.95421504974365</v>
+        <v>10.60915946960449</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>20.81300735473633</v>
+        <v>13.43826866149902</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>5.933533191680908</v>
+        <v>7.662170886993408</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>13.05377292633057</v>
+        <v>8.428387641906738</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>11.86706638336182</v>
+        <v>8.428387641906738</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>13.05377292633057</v>
+        <v>9.960822105407715</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>14.24047946929932</v>
+        <v>13.02569007873535</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>22.54742622375488</v>
+        <v>14.55812454223633</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>10.22393417358398</v>
+        <v>9.901882171630859</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>14.05790901184082</v>
+        <v>10.7270393371582</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>14.05790901184082</v>
+        <v>9.901882171630859</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>14.05790901184082</v>
+        <v>12.37735271453857</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>16.6138916015625</v>
+        <v>14.85282325744629</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>24.2818431854248</v>
+        <v>15.67798042297363</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>12.3234920501709</v>
+        <v>12.37735271453857</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>19.16987609863281</v>
+        <v>13.26144886016846</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>17.80059814453125</v>
+        <v>12.37735271453857</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>19.16987609863281</v>
+        <v>15.02964210510254</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>21.9084300994873</v>
+        <v>16.79783630371094</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>26.01626014709473</v>
+        <v>16.79783630371094</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>14.60561943054199</v>
+        <v>14.14554595947266</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>21.9084300994873</v>
+        <v>15.08858203887939</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>20.44786834716797</v>
+        <v>14.14554595947266</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>21.9084300994873</v>
+        <v>16.97465515136719</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>23.36899185180664</v>
+        <v>17.91769218444824</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>27.75067710876465</v>
+        <v>17.91769218444824</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>17.0703182220459</v>
+        <v>16.03161811828613</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>24.82955360412598</v>
+        <v>17.03359413146973</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>24.82955360412598</v>
+        <v>17.03359413146973</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>26.38140106201172</v>
+        <v>19.03754615783691</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>27.93324851989746</v>
+        <v>19.03754615783691</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>29.48509407043457</v>
+        <v>19.03754615783691</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>19.71758651733398</v>
+        <v>18.03557014465332</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>27.93324851989746</v>
+        <v>19.09648704528809</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>26.29011535644531</v>
+        <v>19.09648704528809</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>27.93324851989746</v>
+        <v>20.15740203857422</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>29.57637977600098</v>
+        <v>20.15740203857422</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>31.21951293945312</v>
+        <v>20.15740203857422</v>
       </c>
     </row>
   </sheetData>

--- a/exports/policy_y1.xlsx
+++ b/exports/policy_y1.xlsx
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3.333333253860474</v>
       </c>
     </row>
     <row r="26">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>2.371070861816406</v>
+        <v>4.44444465637207</v>
       </c>
     </row>
     <row r="32">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1.85185182094574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>1.85185182094574</v>
+        <v>5.55555534362793</v>
       </c>
     </row>
     <row r="38">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>2.222222328186035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>2.222222328186035</v>
+        <v>4.210526466369629</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>2.222222328186035</v>
+        <v>6.666666507720947</v>
       </c>
     </row>
     <row r="44">
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>2.592592477798462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>2.592592477798462</v>
+        <v>5.321637630462646</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>2.592592477798462</v>
+        <v>7.777777671813965</v>
       </c>
     </row>
     <row r="50">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>2.495126724243164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>2.651072025299072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>2.962962865829468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>2.962962865829468</v>
+        <v>8.421052932739258</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>2.962962865829468</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="56">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>2.80701756477356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>3.157894849777222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>3.333333253860474</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>3.333333253860474</v>
+        <v>9.473684310913086</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>3.333333253860474</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>2.078673362731934</v>
+        <v>3.333333253860474</v>
       </c>
     </row>
     <row r="80">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>2.371070861816406</v>
+        <v>4.44444465637207</v>
       </c>
     </row>
     <row r="86">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>1.85185182094574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>1.85185182094574</v>
+        <v>5.55555534362793</v>
       </c>
     </row>
     <row r="92">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>2.222222328186035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2.222222328186035</v>
+        <v>3.859649181365967</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>2.222222328186035</v>
+        <v>6.666666507720947</v>
       </c>
     </row>
     <row r="98">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>2.592592477798462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>2.592592477798462</v>
+        <v>5.321637630462646</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>2.592592477798462</v>
+        <v>7.777777671813965</v>
       </c>
     </row>
     <row r="104">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>2.027290344238281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>2.183235883712769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>2.962962865829468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>2.962962865829468</v>
+        <v>6.549707412719727</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>2.962962865829468</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="110">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>2.80701756477356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>2.80701756477356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>3.333333253860474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>3.333333253860474</v>
+        <v>8.947368621826172</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>3.333333253860474</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>3.31384015083313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>3.508771896362305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>3.703703641891479</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>3.703703641891479</v>
+        <v>9.941520690917969</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>3.703703641891479</v>
+        <v>11.11111068725586</v>
       </c>
     </row>
     <row r="122">
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>1.667190551757812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>2.078673362731934</v>
+        <v>3.333333253860474</v>
       </c>
     </row>
     <row r="134">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>2.371070861816406</v>
+        <v>4.44444465637207</v>
       </c>
     </row>
     <row r="140">
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>1.85185182094574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>2.841033220291138</v>
+        <v>5.55555534362793</v>
       </c>
     </row>
     <row r="146">
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>2.222222328186035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>2.222222328186035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>2.222222328186035</v>
+        <v>6.666666507720947</v>
       </c>
     </row>
     <row r="152">
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>2.592592477798462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>2.592592477798462</v>
+        <v>4.912280559539795</v>
       </c>
     </row>
     <row r="157">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>2.592592477798462</v>
+        <v>7.777777671813965</v>
       </c>
     </row>
     <row r="158">
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>2.027290344238281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>2.962962865829468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>2.962962865829468</v>
+        <v>6.081871509552002</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>2.962962865829468</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="164">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>2.105263233184814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>2.456140279769897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>3.333333253860474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>3.333333253860474</v>
+        <v>7.368421077728271</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>3.333333253860474</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>3.118908405303955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>3.31384015083313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>3.703703641891479</v>
+        <v>4.678362369537354</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>3.703703641891479</v>
+        <v>9.356724739074707</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>3.703703641891479</v>
+        <v>11.11111068725586</v>
       </c>
     </row>
     <row r="176">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>3.645224094390869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>3.859649181365967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>4.074074268341064</v>
+        <v>5.789473533630371</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>4.074074268341064</v>
+        <v>10.29239749908447</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>4.074074268341064</v>
+        <v>12.22222232818604</v>
       </c>
     </row>
     <row r="182">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>2.078673362731934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>2.371070861816406</v>
+        <v>4.44444465637207</v>
       </c>
     </row>
     <row r="194">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1.85185182094574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>2.841033220291138</v>
+        <v>5.55555534362793</v>
       </c>
     </row>
     <row r="200">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>2.222222328186035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>3.152924060821533</v>
+        <v>6.666666507720947</v>
       </c>
     </row>
     <row r="206">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>2.592592477798462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2.592592477798462</v>
+        <v>3.274853706359863</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>2.592592477798462</v>
+        <v>7.777777671813965</v>
       </c>
     </row>
     <row r="212">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>2.962962865829468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>2.962962865829468</v>
+        <v>5.146198749542236</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>2.962962865829468</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="218">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>2.105263233184814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>2.456140279769897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>3.333333253860474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>3.333333253860474</v>
+        <v>7.368421077728271</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>3.333333253860474</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>2.534113168716431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>2.92397665977478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>3.703703641891479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>3.703703641891479</v>
+        <v>8.187134742736816</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>3.703703641891479</v>
+        <v>11.11111068725586</v>
       </c>
     </row>
     <row r="230">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>3.645224094390869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>3.645224094390869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>4.074074268341064</v>
+        <v>5.146198749542236</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>4.074074268341064</v>
+        <v>9.649123191833496</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>4.074074268341064</v>
+        <v>12.22222232818604</v>
       </c>
     </row>
     <row r="236">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>3.976608276367188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>4.210526466369629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>4.44444465637207</v>
+        <v>6.315789699554443</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>4.44444465637207</v>
+        <v>11.22807025909424</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>4.44444465637207</v>
+        <v>13.33333301544189</v>
       </c>
     </row>
     <row r="242">
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>2.371070861816406</v>
+        <v>4.88403844833374</v>
       </c>
     </row>
     <row r="248">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>2.841033220291138</v>
+        <v>5.55555534362793</v>
       </c>
     </row>
     <row r="254">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>2.222222328186035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>3.152924060821533</v>
+        <v>6.666666507720947</v>
       </c>
     </row>
     <row r="260">
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>2.592592477798462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>2.592592477798462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>3.464814901351929</v>
+        <v>7.777777671813965</v>
       </c>
     </row>
     <row r="266">
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>2.962962865829468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>2.962962865829468</v>
+        <v>4.210526466369629</v>
       </c>
     </row>
     <row r="271">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>2.962962865829468</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="272">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>3.333333253860474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>3.333333253860474</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>3.333333253860474</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278">
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>2.534113168716431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>2.729044914245605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>3.703703641891479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>3.703703641891479</v>
+        <v>8.187134742736816</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>3.703703641891479</v>
+        <v>11.11111068725586</v>
       </c>
     </row>
     <row r="284">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>3.001949310302734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>3.216374158859253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>4.074074268341064</v>
+        <v>5.146198749542236</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>4.074074268341064</v>
+        <v>9.649123191833496</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>4.074074268341064</v>
+        <v>12.22222232818604</v>
       </c>
     </row>
     <row r="290">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>3.976608276367188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>3.976608276367188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>4.44444465637207</v>
+        <v>6.315789699554443</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>4.44444465637207</v>
+        <v>10.52631568908691</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>4.44444465637207</v>
+        <v>13.33333301544189</v>
       </c>
     </row>
     <row r="296">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>4.307991981506348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>4.561403274536133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>4.814815044403076</v>
+        <v>7.602339267730713</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>4.814815044403076</v>
+        <v>12.163743019104</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>4.814815044403076</v>
+        <v>14.44444465637207</v>
       </c>
     </row>
     <row r="302">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>2.841033220291138</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="308">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>2.222222328186035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>3.152924060821533</v>
+        <v>6.666666507720947</v>
       </c>
     </row>
     <row r="314">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>2.592592477798462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>2.592592477798462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>3.464814901351929</v>
+        <v>7.777777671813965</v>
       </c>
     </row>
     <row r="320">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>2.962962865829468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>2.962962865829468</v>
+        <v>4.210526466369629</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>2.962962865829468</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="326">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>3.333333253860474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>3.333333253860474</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>3.333333253860474</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>1.949317693710327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>2.144249439239502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>3.703703641891479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>3.703703641891479</v>
+        <v>6.432748317718506</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>3.703703641891479</v>
+        <v>11.11111068725586</v>
       </c>
     </row>
     <row r="338">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>2.787524461746216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>3.001949310302734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>4.074074268341064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>4.074074268341064</v>
+        <v>9.005847930908203</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>4.074074268341064</v>
+        <v>12.22222232818604</v>
       </c>
     </row>
     <row r="344">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>3.274853706359863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>3.508771896362305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>4.44444465637207</v>
+        <v>4.912280559539795</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>4.44444465637207</v>
+        <v>9.82456111907959</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>4.44444465637207</v>
+        <v>13.33333301544189</v>
       </c>
     </row>
     <row r="350">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>4.307991981506348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>4.307991981506348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>4.814815044403076</v>
+        <v>6.081871509552002</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>4.814815044403076</v>
+        <v>11.40350914001465</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>4.814815044403076</v>
+        <v>14.44444465637207</v>
       </c>
     </row>
     <row r="356">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>4.639376163482666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>4.912280559539795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>5.185184955596924</v>
+        <v>7.368421077728271</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>5.185184955596924</v>
+        <v>12.28070163726807</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>5.185184955596924</v>
+        <v>15.55555534362793</v>
       </c>
     </row>
     <row r="362">
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="E366" t="n">
-        <v>2.393205642700195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>3.152924060821533</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="368">
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="E372" t="n">
-        <v>2.592592477798462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>3.464814901351929</v>
+        <v>6.549707412719727</v>
       </c>
     </row>
     <row r="374">
@@ -6849,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>2.962962865829468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="E378" t="n">
-        <v>2.962962865829468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>3.776705741882324</v>
+        <v>7.953216552734375</v>
       </c>
     </row>
     <row r="380">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>3.333333253860474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>3.333333253860474</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>3.333333253860474</v>
+        <v>10</v>
       </c>
     </row>
     <row r="386">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>3.703703641891479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>3.703703641891479</v>
+        <v>6.432748317718506</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>3.703703641891479</v>
+        <v>11.11111068725586</v>
       </c>
     </row>
     <row r="392">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>2.144249439239502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>2.573099374771118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>4.074074268341064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>4.074074268341064</v>
+        <v>7.719298362731934</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>4.074074268341064</v>
+        <v>12.22222232818604</v>
       </c>
     </row>
     <row r="398">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>3.274853706359863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>3.274853706359863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>4.44444465637207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>4.44444465637207</v>
+        <v>9.122806549072266</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>4.44444465637207</v>
+        <v>13.33333301544189</v>
       </c>
     </row>
     <row r="404">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>3.547758340835571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>3.801169633865356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>4.814815044403076</v>
+        <v>5.321637630462646</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>4.814815044403076</v>
+        <v>10.64327526092529</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>4.814815044403076</v>
+        <v>14.44444465637207</v>
       </c>
     </row>
     <row r="410">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>4.639376163482666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>4.639376163482666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>5.185184955596924</v>
+        <v>6.549707412719727</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>5.185184955596924</v>
+        <v>12.28070163726807</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>5.185184955596924</v>
+        <v>15.55555534362793</v>
       </c>
     </row>
     <row r="416">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>4.970760345458984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>5.263157844543457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>5.55555534362793</v>
+        <v>7.894736766815186</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>5.55555534362793</v>
+        <v>13.1578950881958</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>5.55555534362793</v>
+        <v>16.66666603088379</v>
       </c>
     </row>
     <row r="422">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>2.705096483230591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>3.464814901351929</v>
+        <v>6.140350818634033</v>
       </c>
     </row>
     <row r="428">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>2.962962865829468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>2.962962865829468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>3.776705741882324</v>
+        <v>7.485380172729492</v>
       </c>
     </row>
     <row r="434">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>3.333333253860474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>3.333333253860474</v>
+        <v>3.157894849777222</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>4.344133853912354</v>
+        <v>8.421052932739258</v>
       </c>
     </row>
     <row r="440">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>3.703703641891479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>3.703703641891479</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>3.703703641891479</v>
+        <v>9.941520690917969</v>
       </c>
     </row>
     <row r="446">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>2.144249439239502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>2.3586745262146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>4.074074268341064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>4.074074268341064</v>
+        <v>7.076023578643799</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>4.074074268341064</v>
+        <v>11.57894706726074</v>
       </c>
     </row>
     <row r="452">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>2.573099374771118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>2.80701756477356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>4.44444465637207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>4.44444465637207</v>
+        <v>8.421052932739258</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>4.44444465637207</v>
+        <v>13.33333301544189</v>
       </c>
     </row>
     <row r="458">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>3.547758340835571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>3.547758340835571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>4.814815044403076</v>
+        <v>5.321637630462646</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>4.814815044403076</v>
+        <v>9.883041381835938</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>4.814815044403076</v>
+        <v>14.44444465637207</v>
       </c>
     </row>
     <row r="464">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>4.093567371368408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>4.366471767425537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>5.185184955596924</v>
+        <v>6.549707412719727</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>5.185184955596924</v>
+        <v>11.46198844909668</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>5.185184955596924</v>
+        <v>15.55555534362793</v>
       </c>
     </row>
     <row r="470">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>4.970760345458984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>4.970760345458984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>5.55555534362793</v>
+        <v>7.894736766815186</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>5.55555534362793</v>
+        <v>12.28070163726807</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>5.55555534362793</v>
+        <v>16.66666603088379</v>
       </c>
     </row>
     <row r="476">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>5.302144050598145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>5.614035129547119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>5.925925731658936</v>
+        <v>9.356724739074707</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>5.925925731658936</v>
+        <v>13.09941482543945</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>5.925925731658936</v>
+        <v>17.77777862548828</v>
       </c>
     </row>
     <row r="482">
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>3.087658882141113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="E486" t="n">
-        <v>3.016987323760986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>3.776705741882324</v>
+        <v>7.017543792724609</v>
       </c>
     </row>
     <row r="488">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>3.333333253860474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>3.333333253860474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>4.344133853912354</v>
+        <v>8.421052932739258</v>
       </c>
     </row>
     <row r="494">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>3.703703641891479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>3.703703641891479</v>
+        <v>4.093567371368408</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>4.675518035888672</v>
+        <v>9.356724739074707</v>
       </c>
     </row>
     <row r="500">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>4.074074268341064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>4.074074268341064</v>
+        <v>5.789473533630371</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>4.074074268341064</v>
+        <v>10.93567276000977</v>
       </c>
     </row>
     <row r="506">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>2.573099374771118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>2.80701756477356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>4.44444465637207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>4.44444465637207</v>
+        <v>8.421052932739258</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>4.44444465637207</v>
+        <v>11.92982482910156</v>
       </c>
     </row>
     <row r="512">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>3.040935754776001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>3.294347047805786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>4.814815044403076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>4.814815044403076</v>
+        <v>9.122806549072266</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>4.814815044403076</v>
+        <v>14.44444465637207</v>
       </c>
     </row>
     <row r="518">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>3.8206627368927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>4.093567371368408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>5.185184955596924</v>
+        <v>5.73099422454834</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>5.185184955596924</v>
+        <v>10.64327526092529</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>5.185184955596924</v>
+        <v>15.55555534362793</v>
       </c>
     </row>
     <row r="524">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>4.385964870452881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>4.678362369537354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>5.55555534362793</v>
+        <v>7.017543792724609</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>5.55555534362793</v>
+        <v>12.28070163726807</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>5.55555534362793</v>
+        <v>16.66666603088379</v>
       </c>
     </row>
     <row r="530">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>5.302144050598145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>5.302144050598145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>5.925925731658936</v>
+        <v>8.421052932739258</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>5.925925731658936</v>
+        <v>13.09941482543945</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>5.925925731658936</v>
+        <v>17.77777862548828</v>
       </c>
     </row>
     <row r="536">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>5.633528232574463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>5.964912414550781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>6.296296119689941</v>
+        <v>9.941520690917969</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>6.296296119689941</v>
+        <v>13.91812896728516</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>6.296296119689941</v>
+        <v>18.88888931274414</v>
       </c>
     </row>
     <row r="542">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>3.399549722671509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>3.333333253860474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>4.344133853912354</v>
+        <v>8.421052932739258</v>
       </c>
     </row>
     <row r="548">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>3.703703641891479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>3.703703641891479</v>
+        <v>4.093567371368408</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>4.675518035888672</v>
+        <v>9.356724739074707</v>
       </c>
     </row>
     <row r="554">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>4.074074268341064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>4.074074268341064</v>
+        <v>5.146198749542236</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>5.006901741027832</v>
+        <v>10.29239749908447</v>
       </c>
     </row>
     <row r="560">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>2.339181184768677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>4.44444465637207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>4.44444465637207</v>
+        <v>6.315789699554443</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>4.44444465637207</v>
+        <v>11.92982482910156</v>
       </c>
     </row>
     <row r="566">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>2.787524461746216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>3.040935754776001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>4.814815044403076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>4.814815044403076</v>
+        <v>9.122806549072266</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>4.814815044403076</v>
+        <v>12.92397689819336</v>
       </c>
     </row>
     <row r="572">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>3.274853706359863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>3.547758340835571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>5.185184955596924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>5.185184955596924</v>
+        <v>9.82456111907959</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>5.185184955596924</v>
+        <v>14.73684215545654</v>
       </c>
     </row>
     <row r="578">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>4.385964870452881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>4.385964870452881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>5.55555534362793</v>
+        <v>6.140350818634033</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>5.55555534362793</v>
+        <v>11.40350914001465</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>5.55555534362793</v>
+        <v>16.66666603088379</v>
       </c>
     </row>
     <row r="584">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>4.678362369537354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>4.990253448486328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>5.925925731658936</v>
+        <v>7.485380172729492</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>5.925925731658936</v>
+        <v>13.09941482543945</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>5.925925731658936</v>
+        <v>17.77777862548828</v>
       </c>
     </row>
     <row r="590">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>5.633528232574463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>5.633528232574463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>6.296296119689941</v>
+        <v>8.947368621826172</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>6.296296119689941</v>
+        <v>13.91812896728516</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>6.296296119689941</v>
+        <v>18.88888931274414</v>
       </c>
     </row>
     <row r="596">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>5.964912414550781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>6.315789699554443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>6.666666507720947</v>
+        <v>11.57894706726074</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>6.666666507720947</v>
+        <v>14.73684215545654</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>6.666666507720947</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/exports/policy_y1.xlsx
+++ b/exports/policy_y1.xlsx
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>3.333333253860474</v>
+        <v>3.333323240280151</v>
       </c>
     </row>
     <row r="26">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>4.44444465637207</v>
+        <v>4.444430828094482</v>
       </c>
     </row>
     <row r="32">
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>5.55555534362793</v>
+        <v>5.555538654327393</v>
       </c>
     </row>
     <row r="38">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>4.210526466369629</v>
+        <v>3.859637260437012</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>6.666666507720947</v>
+        <v>6.666646480560303</v>
       </c>
     </row>
     <row r="44">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>5.321637630462646</v>
+        <v>5.321621417999268</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>7.777777671813965</v>
+        <v>7.777753829956055</v>
       </c>
     </row>
     <row r="50">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>8.421052932739258</v>
+        <v>6.081852912902832</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>8.888889312744141</v>
+        <v>8.888861656188965</v>
       </c>
     </row>
     <row r="56">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>5.263157844543457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>9.473684310913086</v>
+        <v>7.368398666381836</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>10</v>
+        <v>9.999969482421875</v>
       </c>
     </row>
     <row r="62">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>3.333333253860474</v>
+        <v>3.333323240280151</v>
       </c>
     </row>
     <row r="80">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>4.44444465637207</v>
+        <v>4.444430828094482</v>
       </c>
     </row>
     <row r="86">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>5.55555534362793</v>
+        <v>5.555538654327393</v>
       </c>
     </row>
     <row r="92">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>3.859649181365967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>6.666666507720947</v>
+        <v>6.666646480560303</v>
       </c>
     </row>
     <row r="98">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>5.321637630462646</v>
+        <v>4.912265777587891</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>7.777777671813965</v>
+        <v>7.777753829956055</v>
       </c>
     </row>
     <row r="104">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>6.549707412719727</v>
+        <v>6.081852912902832</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>8.888889312744141</v>
+        <v>8.888861656188965</v>
       </c>
     </row>
     <row r="110">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>8.947368621826172</v>
+        <v>7.368398666381836</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>10</v>
+        <v>9.999969482421875</v>
       </c>
     </row>
     <row r="116">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>5.263157844543457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>9.941520690917969</v>
+        <v>8.18710994720459</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>11.11111068725586</v>
+        <v>11.11107730865479</v>
       </c>
     </row>
     <row r="122">
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>2.737174272537231</v>
       </c>
     </row>
     <row r="128">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>3.333333253860474</v>
+        <v>3.333323240280151</v>
       </c>
     </row>
     <row r="134">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>4.44444465637207</v>
+        <v>4.444430828094482</v>
       </c>
     </row>
     <row r="140">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>5.55555534362793</v>
+        <v>5.555538654327393</v>
       </c>
     </row>
     <row r="146">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>6.666666507720947</v>
+        <v>6.666646480560303</v>
       </c>
     </row>
     <row r="152">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>4.912280559539795</v>
+        <v>4.093554973602295</v>
       </c>
     </row>
     <row r="157">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>7.777777671813965</v>
+        <v>7.777753829956055</v>
       </c>
     </row>
     <row r="158">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>6.081871509552002</v>
+        <v>5.146183013916016</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>8.888889312744141</v>
+        <v>8.888861656188965</v>
       </c>
     </row>
     <row r="164">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>7.368421077728271</v>
+        <v>6.315770149230957</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>10</v>
+        <v>9.999969482421875</v>
       </c>
     </row>
     <row r="170">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>4.678362369537354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>9.356724739074707</v>
+        <v>8.18710994720459</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>11.11111068725586</v>
+        <v>11.11107730865479</v>
       </c>
     </row>
     <row r="176">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>5.789473533630371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>10.29239749908447</v>
+        <v>9.649093627929688</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>12.22222232818604</v>
+        <v>12.2221851348877</v>
       </c>
     </row>
     <row r="182">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>3.76643705368042</v>
       </c>
     </row>
     <row r="188">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>4.44444465637207</v>
+        <v>4.444430828094482</v>
       </c>
     </row>
     <row r="194">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>5.55555534362793</v>
+        <v>5.555538654327393</v>
       </c>
     </row>
     <row r="200">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>6.666666507720947</v>
+        <v>6.666646480560303</v>
       </c>
     </row>
     <row r="206">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>3.274853706359863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>7.777777671813965</v>
+        <v>7.777753829956055</v>
       </c>
     </row>
     <row r="212">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>5.146198749542236</v>
+        <v>4.210513591766357</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>8.888889312744141</v>
+        <v>8.888861656188965</v>
       </c>
     </row>
     <row r="218">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>7.368421077728271</v>
+        <v>5.263141632080078</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>10</v>
+        <v>9.999969482421875</v>
       </c>
     </row>
     <row r="224">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>8.187134742736816</v>
+        <v>7.01752233505249</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>11.11111068725586</v>
+        <v>11.11107730865479</v>
       </c>
     </row>
     <row r="230">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>5.146198749542236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>9.649123191833496</v>
+        <v>9.005820274353027</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>12.22222232818604</v>
+        <v>12.2221851348877</v>
       </c>
     </row>
     <row r="236">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>6.315789699554443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>11.22807025909424</v>
+        <v>9.824531555175781</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>13.33333301544189</v>
+        <v>13.33329296112061</v>
       </c>
     </row>
     <row r="242">
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>4.88403844833374</v>
+        <v>4.91265869140625</v>
       </c>
     </row>
     <row r="248">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>5.55555534362793</v>
+        <v>5.555538654327393</v>
       </c>
     </row>
     <row r="254">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>6.666666507720947</v>
+        <v>6.666646480560303</v>
       </c>
     </row>
     <row r="260">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>7.777777671813965</v>
+        <v>7.777753829956055</v>
       </c>
     </row>
     <row r="266">
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>4.210526466369629</v>
+        <v>4.210513591766357</v>
       </c>
     </row>
     <row r="271">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>8.888889312744141</v>
+        <v>8.888861656188965</v>
       </c>
     </row>
     <row r="272">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>5.263157844543457</v>
+        <v>5.263141632080078</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>10</v>
+        <v>9.999969482421875</v>
       </c>
     </row>
     <row r="278">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>8.187134742736816</v>
+        <v>6.43272876739502</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>11.11111068725586</v>
+        <v>11.11107730865479</v>
       </c>
     </row>
     <row r="284">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>5.146198749542236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>9.649123191833496</v>
+        <v>7.719274520874023</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>12.22222232818604</v>
+        <v>12.2221851348877</v>
       </c>
     </row>
     <row r="290">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>6.315789699554443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>10.52631568908691</v>
+        <v>9.12277889251709</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>13.33333301544189</v>
+        <v>13.33329296112061</v>
       </c>
     </row>
     <row r="296">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>7.602339267730713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>12.163743019104</v>
+        <v>10.64324283599854</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>14.44444465637207</v>
+        <v>14.44440078735352</v>
       </c>
     </row>
     <row r="302">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>5.263157844543457</v>
+        <v>5.789848804473877</v>
       </c>
     </row>
     <row r="308">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>6.666666507720947</v>
+        <v>6.666646480560303</v>
       </c>
     </row>
     <row r="314">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>7.777777671813965</v>
+        <v>7.777753829956055</v>
       </c>
     </row>
     <row r="320">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>4.210526466369629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>8.888889312744141</v>
+        <v>8.888861656188965</v>
       </c>
     </row>
     <row r="326">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>5.263157844543457</v>
+        <v>5.263141632080078</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>10</v>
+        <v>9.999969482421875</v>
       </c>
     </row>
     <row r="332">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>6.432748317718506</v>
+        <v>6.43272876739502</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>11.11111068725586</v>
+        <v>11.11107730865479</v>
       </c>
     </row>
     <row r="338">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>9.005847930908203</v>
+        <v>7.076001644134521</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>12.22222232818604</v>
+        <v>12.2221851348877</v>
       </c>
     </row>
     <row r="344">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>4.912280559539795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>9.82456111907959</v>
+        <v>8.421027183532715</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>13.33333301544189</v>
+        <v>13.33329296112061</v>
       </c>
     </row>
     <row r="350">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>6.081871509552002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>11.40350914001465</v>
+        <v>9.883010864257812</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>14.44444465637207</v>
+        <v>14.44440078735352</v>
       </c>
     </row>
     <row r="356">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>7.368421077728271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>12.28070163726807</v>
+        <v>11.46195316314697</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>15.55555534362793</v>
+        <v>15.55550765991211</v>
       </c>
     </row>
     <row r="362">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>5.263157844543457</v>
+        <v>7.111508369445801</v>
       </c>
     </row>
     <row r="368">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>6.549707412719727</v>
+        <v>7.777753829956055</v>
       </c>
     </row>
     <row r="374">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>7.953216552734375</v>
+        <v>8.888861656188965</v>
       </c>
     </row>
     <row r="380">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>5.263157844543457</v>
+        <v>4.210513591766357</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>10</v>
+        <v>9.999969482421875</v>
       </c>
     </row>
     <row r="386">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>6.432748317718506</v>
+        <v>5.263141632080078</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>11.11111068725586</v>
+        <v>11.11107730865479</v>
       </c>
     </row>
     <row r="392">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>7.719298362731934</v>
+        <v>6.43272876739502</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>12.22222232818604</v>
+        <v>12.2221851348877</v>
       </c>
     </row>
     <row r="398">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>9.122806549072266</v>
+        <v>8.421027183532715</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>13.33333301544189</v>
+        <v>13.33329296112061</v>
       </c>
     </row>
     <row r="404">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>5.321637630462646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>10.64327526092529</v>
+        <v>9.12277889251709</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>14.44444465637207</v>
+        <v>14.44440078735352</v>
       </c>
     </row>
     <row r="410">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>6.549707412719727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>12.28070163726807</v>
+        <v>10.64324283599854</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>15.55555534362793</v>
+        <v>15.55550765991211</v>
       </c>
     </row>
     <row r="416">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>7.894736766815186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>13.1578950881958</v>
+        <v>12.28066444396973</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>16.66666603088379</v>
+        <v>16.66661643981934</v>
       </c>
     </row>
     <row r="422">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>6.140350818634033</v>
+        <v>8.047178268432617</v>
       </c>
     </row>
     <row r="428">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>7.485380172729492</v>
+        <v>8.888861656188965</v>
       </c>
     </row>
     <row r="434">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>3.157894849777222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>8.421052932739258</v>
+        <v>9.999969482421875</v>
       </c>
     </row>
     <row r="440">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>5.263157844543457</v>
+        <v>4.678348064422607</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>9.941520690917969</v>
+        <v>11.11107730865479</v>
       </c>
     </row>
     <row r="446">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>7.076023578643799</v>
+        <v>5.789455890655518</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>11.57894706726074</v>
+        <v>12.2221851348877</v>
       </c>
     </row>
     <row r="452">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>8.421052932739258</v>
+        <v>7.01752233505249</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>13.33333301544189</v>
+        <v>13.33329296112061</v>
       </c>
     </row>
     <row r="458">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>5.321637630462646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>9.883041381835938</v>
+        <v>9.12277889251709</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>14.44444465637207</v>
+        <v>14.44440078735352</v>
       </c>
     </row>
     <row r="464">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>6.549707412719727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>11.46198844909668</v>
+        <v>10.64324283599854</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>15.55555534362793</v>
+        <v>15.55550765991211</v>
       </c>
     </row>
     <row r="470">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>7.894736766815186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>12.28070163726807</v>
+        <v>11.40347385406494</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>16.66666603088379</v>
+        <v>16.66661643981934</v>
       </c>
     </row>
     <row r="476">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>9.356724739074707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>13.09941482543945</v>
+        <v>13.09937477111816</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>17.77777862548828</v>
+        <v>17.77772331237793</v>
       </c>
     </row>
     <row r="482">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>7.017543792724609</v>
+        <v>8.888861656188965</v>
       </c>
     </row>
     <row r="488">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>8.421052932739258</v>
+        <v>8.947340965270996</v>
       </c>
     </row>
     <row r="494">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>4.093567371368408</v>
+        <v>4.093554973602295</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>9.356724739074707</v>
+        <v>9.941490173339844</v>
       </c>
     </row>
     <row r="500">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>5.789473533630371</v>
+        <v>5.146183013916016</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>10.93567276000977</v>
+        <v>10.93563938140869</v>
       </c>
     </row>
     <row r="506">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>8.421052932739258</v>
+        <v>6.315770149230957</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>11.92982482910156</v>
+        <v>13.33329296112061</v>
       </c>
     </row>
     <row r="512">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>9.122806549072266</v>
+        <v>7.602315902709961</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>14.44444465637207</v>
+        <v>14.44440078735352</v>
       </c>
     </row>
     <row r="518">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>5.73099422454834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>10.64327526092529</v>
+        <v>9.005820274353027</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>15.55555534362793</v>
+        <v>15.55550765991211</v>
       </c>
     </row>
     <row r="524">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>7.017543792724609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>12.28070163726807</v>
+        <v>10.52628326416016</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>16.66666603088379</v>
+        <v>16.66661643981934</v>
       </c>
     </row>
     <row r="530">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>8.421052932739258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>13.09941482543945</v>
+        <v>12.16370582580566</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>17.77777862548828</v>
+        <v>17.77772331237793</v>
       </c>
     </row>
     <row r="536">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>9.941520690917969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>13.91812896728516</v>
+        <v>13.91808605194092</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>18.88888931274414</v>
+        <v>18.88883209228516</v>
       </c>
     </row>
     <row r="542">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>8.421052932739258</v>
+        <v>8.947340965270996</v>
       </c>
     </row>
     <row r="548">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>4.093567371368408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>9.356724739074707</v>
+        <v>9.941490173339844</v>
       </c>
     </row>
     <row r="554">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>5.146198749542236</v>
+        <v>5.146183013916016</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>10.29239749908447</v>
+        <v>10.93563938140869</v>
       </c>
     </row>
     <row r="560">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>6.315789699554443</v>
+        <v>6.315770149230957</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>11.92982482910156</v>
+        <v>11.92978858947754</v>
       </c>
     </row>
     <row r="566">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>9.122806549072266</v>
+        <v>7.602315902709961</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>12.92397689819336</v>
+        <v>13.68416881561279</v>
       </c>
     </row>
     <row r="572">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>9.82456111907959</v>
+        <v>9.005820274353027</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>14.73684215545654</v>
+        <v>15.55550765991211</v>
       </c>
     </row>
     <row r="578">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>6.140350818634033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>11.40350914001465</v>
+        <v>9.649093627929688</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>16.66666603088379</v>
+        <v>16.66661643981934</v>
       </c>
     </row>
     <row r="584">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>7.485380172729492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>13.09941482543945</v>
+        <v>11.22803592681885</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>17.77777862548828</v>
+        <v>17.77772331237793</v>
       </c>
     </row>
     <row r="590">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>8.947368621826172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>13.91812896728516</v>
+        <v>12.92393684387207</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>18.88888931274414</v>
+        <v>18.88883209228516</v>
       </c>
     </row>
     <row r="596">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>11.57894706726074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>14.73684215545654</v>
+        <v>14.73679733276367</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>20</v>
+        <v>19.99993896484375</v>
       </c>
     </row>
   </sheetData>

--- a/exports/policy_y1.xlsx
+++ b/exports/policy_y1.xlsx
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>3.333323240280151</v>
+        <v>3.333333253860474</v>
       </c>
     </row>
     <row r="26">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>4.444430828094482</v>
+        <v>4.44444465637207</v>
       </c>
     </row>
     <row r="32">
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>5.555538654327393</v>
+        <v>5.55555534362793</v>
       </c>
     </row>
     <row r="38">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>3.859637260437012</v>
+        <v>3.859649181365967</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>6.666646480560303</v>
+        <v>6.666666507720947</v>
       </c>
     </row>
     <row r="44">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>5.321621417999268</v>
+        <v>5.321637630462646</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>7.777753829956055</v>
+        <v>7.777777671813965</v>
       </c>
     </row>
     <row r="50">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>6.081852912902832</v>
+        <v>6.081871509552002</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>8.888861656188965</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="56">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>7.368398666381836</v>
+        <v>7.368421077728271</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>9.999969482421875</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>3.333323240280151</v>
+        <v>3.333333253860474</v>
       </c>
     </row>
     <row r="80">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>4.444430828094482</v>
+        <v>4.44444465637207</v>
       </c>
     </row>
     <row r="86">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>5.555538654327393</v>
+        <v>5.55555534362793</v>
       </c>
     </row>
     <row r="92">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>6.666646480560303</v>
+        <v>6.666666507720947</v>
       </c>
     </row>
     <row r="98">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>4.912265777587891</v>
+        <v>4.912280559539795</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>7.777753829956055</v>
+        <v>7.777777671813965</v>
       </c>
     </row>
     <row r="104">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>6.081852912902832</v>
+        <v>6.081871509552002</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>8.888861656188965</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="110">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>7.368398666381836</v>
+        <v>7.368421077728271</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>9.999969482421875</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>8.18710994720459</v>
+        <v>8.187134742736816</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>11.11107730865479</v>
+        <v>11.11111068725586</v>
       </c>
     </row>
     <row r="122">
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>2.737174272537231</v>
+        <v>2.737180471420288</v>
       </c>
     </row>
     <row r="128">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>3.333323240280151</v>
+        <v>3.333333253860474</v>
       </c>
     </row>
     <row r="134">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>4.444430828094482</v>
+        <v>4.44444465637207</v>
       </c>
     </row>
     <row r="140">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>5.555538654327393</v>
+        <v>5.55555534362793</v>
       </c>
     </row>
     <row r="146">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>6.666646480560303</v>
+        <v>6.666666507720947</v>
       </c>
     </row>
     <row r="152">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>4.093554973602295</v>
+        <v>4.093567371368408</v>
       </c>
     </row>
     <row r="157">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>7.777753829956055</v>
+        <v>7.777777671813965</v>
       </c>
     </row>
     <row r="158">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>5.146183013916016</v>
+        <v>5.146198749542236</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>8.888861656188965</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="164">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>6.315770149230957</v>
+        <v>6.315789699554443</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>9.999969482421875</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>8.18710994720459</v>
+        <v>8.187134742736816</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>11.11107730865479</v>
+        <v>11.11111068725586</v>
       </c>
     </row>
     <row r="176">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>9.649093627929688</v>
+        <v>9.649123191833496</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>12.2221851348877</v>
+        <v>12.22222232818604</v>
       </c>
     </row>
     <row r="182">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>3.76643705368042</v>
+        <v>3.766446352005005</v>
       </c>
     </row>
     <row r="188">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>4.444430828094482</v>
+        <v>4.44444465637207</v>
       </c>
     </row>
     <row r="194">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>5.555538654327393</v>
+        <v>5.55555534362793</v>
       </c>
     </row>
     <row r="200">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>6.666646480560303</v>
+        <v>6.666666507720947</v>
       </c>
     </row>
     <row r="206">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>7.777753829956055</v>
+        <v>7.777777671813965</v>
       </c>
     </row>
     <row r="212">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4.210513591766357</v>
+        <v>4.210526466369629</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>8.888861656188965</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="218">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>5.263141632080078</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>9.999969482421875</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>7.01752233505249</v>
+        <v>7.017543792724609</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>11.11107730865479</v>
+        <v>11.11111068725586</v>
       </c>
     </row>
     <row r="230">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>9.005820274353027</v>
+        <v>9.005847930908203</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>12.2221851348877</v>
+        <v>12.22222232818604</v>
       </c>
     </row>
     <row r="236">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>9.824531555175781</v>
+        <v>9.82456111907959</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>13.33329296112061</v>
+        <v>13.33333301544189</v>
       </c>
     </row>
     <row r="242">
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>4.91265869140625</v>
+        <v>4.912671089172363</v>
       </c>
     </row>
     <row r="248">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>5.555538654327393</v>
+        <v>5.55555534362793</v>
       </c>
     </row>
     <row r="254">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>6.666646480560303</v>
+        <v>6.666666507720947</v>
       </c>
     </row>
     <row r="260">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>7.777753829956055</v>
+        <v>7.777777671813965</v>
       </c>
     </row>
     <row r="266">
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>4.210513591766357</v>
+        <v>4.210526466369629</v>
       </c>
     </row>
     <row r="271">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>8.888861656188965</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="272">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>5.263141632080078</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>9.999969482421875</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>6.43272876739502</v>
+        <v>6.432748317718506</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>11.11107730865479</v>
+        <v>11.11111068725586</v>
       </c>
     </row>
     <row r="284">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>7.719274520874023</v>
+        <v>7.719298362731934</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>12.2221851348877</v>
+        <v>12.22222232818604</v>
       </c>
     </row>
     <row r="290">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>9.12277889251709</v>
+        <v>9.122806549072266</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>13.33329296112061</v>
+        <v>13.33333301544189</v>
       </c>
     </row>
     <row r="296">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>10.64324283599854</v>
+        <v>10.64327526092529</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>14.44440078735352</v>
+        <v>14.44444465637207</v>
       </c>
     </row>
     <row r="302">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>5.789848804473877</v>
+        <v>5.789864063262939</v>
       </c>
     </row>
     <row r="308">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>6.666646480560303</v>
+        <v>6.666666507720947</v>
       </c>
     </row>
     <row r="314">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>7.777753829956055</v>
+        <v>7.777777671813965</v>
       </c>
     </row>
     <row r="320">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>8.888861656188965</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="326">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>5.263141632080078</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>9.999969482421875</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>6.43272876739502</v>
+        <v>6.432748317718506</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>11.11107730865479</v>
+        <v>11.11111068725586</v>
       </c>
     </row>
     <row r="338">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>7.076001644134521</v>
+        <v>7.076023578643799</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>12.2221851348877</v>
+        <v>12.22222232818604</v>
       </c>
     </row>
     <row r="344">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>8.421027183532715</v>
+        <v>8.421052932739258</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>13.33329296112061</v>
+        <v>13.33333301544189</v>
       </c>
     </row>
     <row r="350">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>9.883010864257812</v>
+        <v>9.883041381835938</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>14.44440078735352</v>
+        <v>14.44444465637207</v>
       </c>
     </row>
     <row r="356">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>11.46195316314697</v>
+        <v>11.46198844909668</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>15.55550765991211</v>
+        <v>15.55555534362793</v>
       </c>
     </row>
     <row r="362">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>7.111508369445801</v>
+        <v>7.111527442932129</v>
       </c>
     </row>
     <row r="368">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>7.777753829956055</v>
+        <v>7.777777671813965</v>
       </c>
     </row>
     <row r="374">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>8.888861656188965</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="380">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>4.210513591766357</v>
+        <v>4.210526466369629</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>9.999969482421875</v>
+        <v>10</v>
       </c>
     </row>
     <row r="386">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>5.263141632080078</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>11.11107730865479</v>
+        <v>11.11111068725586</v>
       </c>
     </row>
     <row r="392">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>6.43272876739502</v>
+        <v>6.432748317718506</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>12.2221851348877</v>
+        <v>12.22222232818604</v>
       </c>
     </row>
     <row r="398">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>8.421027183532715</v>
+        <v>8.421052932739258</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>13.33329296112061</v>
+        <v>13.33333301544189</v>
       </c>
     </row>
     <row r="404">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>9.12277889251709</v>
+        <v>9.122806549072266</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>14.44440078735352</v>
+        <v>14.44444465637207</v>
       </c>
     </row>
     <row r="410">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>10.64324283599854</v>
+        <v>10.64327526092529</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>15.55550765991211</v>
+        <v>15.55555534362793</v>
       </c>
     </row>
     <row r="416">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>12.28066444396973</v>
+        <v>12.28070163726807</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>16.66661643981934</v>
+        <v>16.66666603088379</v>
       </c>
     </row>
     <row r="422">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>8.047178268432617</v>
+        <v>8.047200202941895</v>
       </c>
     </row>
     <row r="428">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>8.888861656188965</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="434">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>9.999969482421875</v>
+        <v>10</v>
       </c>
     </row>
     <row r="440">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>4.678348064422607</v>
+        <v>4.678362369537354</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>11.11107730865479</v>
+        <v>11.11111068725586</v>
       </c>
     </row>
     <row r="446">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>5.789455890655518</v>
+        <v>5.789473533630371</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>12.2221851348877</v>
+        <v>12.22222232818604</v>
       </c>
     </row>
     <row r="452">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>7.01752233505249</v>
+        <v>7.017543792724609</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>13.33329296112061</v>
+        <v>13.33333301544189</v>
       </c>
     </row>
     <row r="458">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>9.12277889251709</v>
+        <v>9.122806549072266</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>14.44440078735352</v>
+        <v>14.44444465637207</v>
       </c>
     </row>
     <row r="464">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>10.64324283599854</v>
+        <v>10.64327526092529</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>15.55550765991211</v>
+        <v>15.55555534362793</v>
       </c>
     </row>
     <row r="470">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>11.40347385406494</v>
+        <v>11.40350914001465</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>16.66661643981934</v>
+        <v>16.66666603088379</v>
       </c>
     </row>
     <row r="476">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>13.09937477111816</v>
+        <v>13.09941482543945</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>17.77772331237793</v>
+        <v>17.77777862548828</v>
       </c>
     </row>
     <row r="482">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>8.888861656188965</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="488">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>8.947340965270996</v>
+        <v>8.947368621826172</v>
       </c>
     </row>
     <row r="494">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>4.093554973602295</v>
+        <v>4.093567371368408</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>9.941490173339844</v>
+        <v>9.941520690917969</v>
       </c>
     </row>
     <row r="500">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>5.146183013916016</v>
+        <v>5.146198749542236</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>10.93563938140869</v>
+        <v>10.93567276000977</v>
       </c>
     </row>
     <row r="506">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>6.315770149230957</v>
+        <v>6.315789699554443</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>13.33329296112061</v>
+        <v>13.33333301544189</v>
       </c>
     </row>
     <row r="512">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>7.602315902709961</v>
+        <v>7.602339267730713</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>14.44440078735352</v>
+        <v>14.44444465637207</v>
       </c>
     </row>
     <row r="518">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>9.005820274353027</v>
+        <v>9.005847930908203</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>15.55550765991211</v>
+        <v>15.55555534362793</v>
       </c>
     </row>
     <row r="524">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>10.52628326416016</v>
+        <v>10.52631568908691</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>16.66661643981934</v>
+        <v>16.66666603088379</v>
       </c>
     </row>
     <row r="530">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>12.16370582580566</v>
+        <v>12.163743019104</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>17.77772331237793</v>
+        <v>17.77777862548828</v>
       </c>
     </row>
     <row r="536">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>13.91808605194092</v>
+        <v>13.91812896728516</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>18.88883209228516</v>
+        <v>18.88888931274414</v>
       </c>
     </row>
     <row r="542">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>8.947340965270996</v>
+        <v>8.947368621826172</v>
       </c>
     </row>
     <row r="548">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>9.941490173339844</v>
+        <v>9.941520690917969</v>
       </c>
     </row>
     <row r="554">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>5.146183013916016</v>
+        <v>5.146198749542236</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>10.93563938140869</v>
+        <v>10.93567276000977</v>
       </c>
     </row>
     <row r="560">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>6.315770149230957</v>
+        <v>6.315789699554443</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>11.92978858947754</v>
+        <v>11.92982482910156</v>
       </c>
     </row>
     <row r="566">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>7.602315902709961</v>
+        <v>7.602339267730713</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>13.68416881561279</v>
+        <v>13.68421077728271</v>
       </c>
     </row>
     <row r="572">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>9.005820274353027</v>
+        <v>9.005847930908203</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>15.55550765991211</v>
+        <v>15.55555534362793</v>
       </c>
     </row>
     <row r="578">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>9.649093627929688</v>
+        <v>9.649123191833496</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>16.66661643981934</v>
+        <v>16.66666603088379</v>
       </c>
     </row>
     <row r="584">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>11.22803592681885</v>
+        <v>11.22807025909424</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>17.77772331237793</v>
+        <v>17.77777862548828</v>
       </c>
     </row>
     <row r="590">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>12.92393684387207</v>
+        <v>12.92397689819336</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>18.88883209228516</v>
+        <v>18.88888931274414</v>
       </c>
     </row>
     <row r="596">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>14.73679733276367</v>
+        <v>14.73684215545654</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>19.99993896484375</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
